--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -928,16 +928,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Version</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Elo Difference 10+0.1</t>
+  </si>
+  <si>
+    <t>v2.1 r193 dev</t>
   </si>
 </sst>
 </file>
@@ -182,29 +185,35 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$3</c:f>
+              <c:f>Лист1!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>v2.0 r172</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>v2.1 r183 dev</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>v2.1 r193 dev</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$3</c:f>
+              <c:f>Лист1!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>35.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,6 +1267,14 @@
         <v>35.21</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>48.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Version</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>v2.1 r193 dev</t>
+  </si>
+  <si>
+    <t>v2.1 r210</t>
   </si>
 </sst>
 </file>
@@ -185,9 +188,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$4</c:f>
+              <c:f>Лист1!$A$2:$A$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>v2.0 r172</c:v>
                 </c:pt>
@@ -197,15 +200,18 @@
                 <c:pt idx="2">
                   <c:v>v2.1 r193 dev</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>v2.1 r210</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$4</c:f>
+              <c:f>Лист1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -214,6 +220,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>48.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.488999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1231,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,6 +1284,14 @@
         <v>48.25</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>49.488999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -32,9 +32,6 @@
     <t>v2.1 r183 dev</t>
   </si>
   <si>
-    <t>v2.0 r172</t>
-  </si>
-  <si>
     <t>Elo Difference 10+0.1</t>
   </si>
   <si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>v2.1 r210</t>
+  </si>
+  <si>
+    <t>v2.0 r272</t>
   </si>
 </sst>
 </file>
@@ -138,7 +138,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -192,7 +192,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>v2.0 r172</c:v>
+                  <c:v>v2.0 r272</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>v2.1 r183 dev</c:v>
@@ -288,7 +288,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="274988000"/>
@@ -347,7 +347,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="274990496"/>
@@ -388,7 +388,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,12 +1257,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>48.25</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>49.488999999999997</v>

--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -24,24 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Version</t>
-  </si>
-  <si>
-    <t>v2.1 r183 dev</t>
   </si>
   <si>
     <t>Elo Difference 10+0.1</t>
   </si>
   <si>
-    <t>v2.1 r193 dev</t>
+    <t>v2.1.1 r216</t>
   </si>
   <si>
-    <t>v2.1 r210</t>
-  </si>
-  <si>
-    <t>v2.0 r272</t>
+    <t>v2.2 r227 dev</t>
   </si>
 </sst>
 </file>
@@ -188,41 +182,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Лист1!$A$2:$A$5</c:f>
+              <c:f>Лист1!$A$2:$A$3</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>v2.0 r272</c:v>
+                  <c:v>v2.1.1 r216</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>v2.1 r183 dev</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>v2.1 r193 dev</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>v2.1 r210</c:v>
+                  <c:v>v2.2 r227 dev</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$5</c:f>
+              <c:f>Лист1!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>48.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49.488999999999997</c:v>
+                  <c:v>36.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1240,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,12 +1239,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1270,26 +1252,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>35.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>48.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>49.488999999999997</v>
+        <v>36.33</v>
       </c>
     </row>
   </sheetData>
